--- a/public/LISTADO PAGOS BK.xlsx
+++ b/public/LISTADO PAGOS BK.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\booking\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BDDC8A-B736-48C5-B476-BD4C8432E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAGOS BK DEL 1 AL 31 DE DICIEMB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PAGOS BK DEL 1 AL 31 DE DICIEMB'!$D$3:$D$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PAGOS BK DEL 1 AL 31 DE DICIEMB'!$A$3:$F$548</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1637,7 +1638,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
@@ -1738,7 +1739,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2019,11 +2020,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="H471" sqref="H471"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12963,556 +12964,557 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:F115">
+  <autoFilter ref="A3:F548" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F115">
     <sortCondition ref="D112"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A97" r:id="rId1" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239655112"/>
-    <hyperlink ref="A98" r:id="rId2" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230497925"/>
-    <hyperlink ref="A99" r:id="rId3" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230496845"/>
-    <hyperlink ref="A100" r:id="rId4" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227424593"/>
-    <hyperlink ref="A101" r:id="rId5" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224955885"/>
-    <hyperlink ref="A102" r:id="rId6" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4223986491"/>
-    <hyperlink ref="A103" r:id="rId7" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4205249671"/>
-    <hyperlink ref="A104" r:id="rId8" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4202737922"/>
-    <hyperlink ref="A105" r:id="rId9" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183961514"/>
-    <hyperlink ref="A106" r:id="rId10" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164638950"/>
-    <hyperlink ref="A107" r:id="rId11" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4156429946"/>
-    <hyperlink ref="A108" r:id="rId12" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148639400"/>
-    <hyperlink ref="A109" r:id="rId13" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137432386"/>
-    <hyperlink ref="A110" r:id="rId14" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112675028"/>
-    <hyperlink ref="A111" r:id="rId15" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075177413"/>
-    <hyperlink ref="A112" r:id="rId16" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4073214394"/>
-    <hyperlink ref="A113" r:id="rId17" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4006538228"/>
-    <hyperlink ref="A114" r:id="rId18" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003861440"/>
-    <hyperlink ref="A115" r:id="rId19" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4000421941"/>
-    <hyperlink ref="A82" r:id="rId20" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239608858"/>
-    <hyperlink ref="A83" r:id="rId21" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203073376"/>
-    <hyperlink ref="A84" r:id="rId22" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176929341"/>
-    <hyperlink ref="A85" r:id="rId23" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164293592"/>
-    <hyperlink ref="A86" r:id="rId24" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4153570650"/>
-    <hyperlink ref="A87" r:id="rId25" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113786014"/>
-    <hyperlink ref="A88" r:id="rId26" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4105077759"/>
-    <hyperlink ref="A89" r:id="rId27" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102398062"/>
-    <hyperlink ref="A90" r:id="rId28" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4090592415"/>
-    <hyperlink ref="A91" r:id="rId29" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089550999"/>
-    <hyperlink ref="A92" r:id="rId30" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4081679708"/>
-    <hyperlink ref="A93" r:id="rId31" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4069889922"/>
-    <hyperlink ref="A94" r:id="rId32" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061796642"/>
-    <hyperlink ref="A95" r:id="rId33" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042289538"/>
-    <hyperlink ref="A96" r:id="rId34" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004355715"/>
-    <hyperlink ref="A57" r:id="rId35" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287739049"/>
-    <hyperlink ref="A58" r:id="rId36" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286955303"/>
-    <hyperlink ref="A59" r:id="rId37" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4255374604"/>
-    <hyperlink ref="A60" r:id="rId38" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221480905"/>
-    <hyperlink ref="A61" r:id="rId39" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206995237"/>
-    <hyperlink ref="A62" r:id="rId40" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182802649"/>
-    <hyperlink ref="A63" r:id="rId41" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176807246"/>
-    <hyperlink ref="A64" r:id="rId42" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4175448987"/>
-    <hyperlink ref="A65" r:id="rId43" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4160673901"/>
-    <hyperlink ref="A66" r:id="rId44" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154755209"/>
-    <hyperlink ref="A67" r:id="rId45" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154374760"/>
-    <hyperlink ref="A68" r:id="rId46" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143179473"/>
-    <hyperlink ref="A69" r:id="rId47" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4114482355"/>
-    <hyperlink ref="A70" r:id="rId48" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113793571"/>
-    <hyperlink ref="A71" r:id="rId49" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108630204"/>
-    <hyperlink ref="A72" r:id="rId50" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4092104757"/>
-    <hyperlink ref="A73" r:id="rId51" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4080543699"/>
-    <hyperlink ref="A74" r:id="rId52" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068486206"/>
-    <hyperlink ref="A75" r:id="rId53" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4063996680"/>
-    <hyperlink ref="A76" r:id="rId54" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4063994855"/>
-    <hyperlink ref="A77" r:id="rId55" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056578021"/>
-    <hyperlink ref="A78" r:id="rId56" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4048648924"/>
-    <hyperlink ref="A79" r:id="rId57" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4032031391"/>
-    <hyperlink ref="A80" r:id="rId58" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008040384"/>
-    <hyperlink ref="A81" r:id="rId59" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004392734"/>
-    <hyperlink ref="A40" r:id="rId60" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275435097"/>
-    <hyperlink ref="A41" r:id="rId61" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274777199"/>
-    <hyperlink ref="A42" r:id="rId62" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4272530157"/>
-    <hyperlink ref="A43" r:id="rId63" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4238079725"/>
-    <hyperlink ref="A44" r:id="rId64" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4179776514"/>
-    <hyperlink ref="A45" r:id="rId65" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176167889"/>
-    <hyperlink ref="A46" r:id="rId66" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143401082"/>
-    <hyperlink ref="A47" r:id="rId67" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4136890379"/>
-    <hyperlink ref="A48" r:id="rId68" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4114535853"/>
-    <hyperlink ref="A49" r:id="rId69" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4092186618"/>
-    <hyperlink ref="A50" r:id="rId70" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084798749"/>
-    <hyperlink ref="A51" r:id="rId71" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056558833"/>
-    <hyperlink ref="A52" r:id="rId72" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042081768"/>
-    <hyperlink ref="A53" r:id="rId73" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4033932706"/>
-    <hyperlink ref="A54" r:id="rId74" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029735440"/>
-    <hyperlink ref="A55" r:id="rId75" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019656239"/>
-    <hyperlink ref="A56" r:id="rId76" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001015084"/>
-    <hyperlink ref="A17" r:id="rId77" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291539293"/>
-    <hyperlink ref="A18" r:id="rId78" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4285180500"/>
-    <hyperlink ref="A19" r:id="rId79" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262393207"/>
-    <hyperlink ref="A20" r:id="rId80" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230407627"/>
-    <hyperlink ref="A21" r:id="rId81" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4226084387"/>
-    <hyperlink ref="A22" r:id="rId82" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4201755334"/>
-    <hyperlink ref="A23" r:id="rId83" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177069902"/>
-    <hyperlink ref="A24" r:id="rId84" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171903921"/>
-    <hyperlink ref="A25" r:id="rId85" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170247256"/>
-    <hyperlink ref="A26" r:id="rId86" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4150829217"/>
-    <hyperlink ref="A27" r:id="rId87" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137426757"/>
-    <hyperlink ref="A28" r:id="rId88" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118723622"/>
-    <hyperlink ref="A29" r:id="rId89" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112643857"/>
-    <hyperlink ref="A30" r:id="rId90" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093855606"/>
-    <hyperlink ref="A31" r:id="rId91" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075772124"/>
-    <hyperlink ref="A32" r:id="rId92" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060413272"/>
-    <hyperlink ref="A33" r:id="rId93" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4049114285"/>
-    <hyperlink ref="A34" r:id="rId94" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025935164"/>
-    <hyperlink ref="A35" r:id="rId95" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4022543978"/>
-    <hyperlink ref="A36" r:id="rId96" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019339585"/>
-    <hyperlink ref="A37" r:id="rId97" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007346770"/>
-    <hyperlink ref="A38" r:id="rId98" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4005738887"/>
-    <hyperlink ref="A39" r:id="rId99" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003460052"/>
-    <hyperlink ref="A3" r:id="rId100" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4283246090"/>
-    <hyperlink ref="A4" r:id="rId101" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231281196"/>
-    <hyperlink ref="A5" r:id="rId102" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182974098"/>
-    <hyperlink ref="A6" r:id="rId103" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173316101"/>
-    <hyperlink ref="A7" r:id="rId104" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173307521"/>
-    <hyperlink ref="A8" r:id="rId105" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137459028"/>
-    <hyperlink ref="A9" r:id="rId106" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4121886091"/>
-    <hyperlink ref="A10" r:id="rId107" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095814871"/>
-    <hyperlink ref="A11" r:id="rId108" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077933392"/>
-    <hyperlink ref="A12" r:id="rId109" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060586718"/>
-    <hyperlink ref="A13" r:id="rId110" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025945115"/>
-    <hyperlink ref="A14" r:id="rId111" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012363646"/>
-    <hyperlink ref="A15" r:id="rId112" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008004182"/>
-    <hyperlink ref="A16" r:id="rId113" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003309352"/>
-    <hyperlink ref="A226" r:id="rId114" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4294629004"/>
-    <hyperlink ref="A227" r:id="rId115" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287755650"/>
-    <hyperlink ref="A228" r:id="rId116" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241696945"/>
-    <hyperlink ref="A229" r:id="rId117" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236536470"/>
-    <hyperlink ref="A230" r:id="rId118" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225678526"/>
-    <hyperlink ref="A231" r:id="rId119" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225670127"/>
-    <hyperlink ref="A232" r:id="rId120" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210519507"/>
-    <hyperlink ref="A233" r:id="rId121" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182245836"/>
-    <hyperlink ref="A234" r:id="rId122" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182226766"/>
-    <hyperlink ref="A235" r:id="rId123" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182214570"/>
-    <hyperlink ref="A236" r:id="rId124" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4172310018"/>
-    <hyperlink ref="A237" r:id="rId125" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4163694589"/>
-    <hyperlink ref="A238" r:id="rId126" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4158429639"/>
-    <hyperlink ref="A239" r:id="rId127" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4140822920"/>
-    <hyperlink ref="A240" r:id="rId128" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117092334"/>
-    <hyperlink ref="A241" r:id="rId129" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060547618"/>
-    <hyperlink ref="A242" r:id="rId130" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027090716"/>
-    <hyperlink ref="A243" r:id="rId131" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012825925"/>
-    <hyperlink ref="A244" r:id="rId132" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012800669"/>
-    <hyperlink ref="A214" r:id="rId133" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274671731"/>
-    <hyperlink ref="A215" r:id="rId134" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265254307"/>
-    <hyperlink ref="A216" r:id="rId135" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239764285"/>
-    <hyperlink ref="A217" r:id="rId136" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239723265"/>
-    <hyperlink ref="A218" r:id="rId137" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236509944"/>
-    <hyperlink ref="A219" r:id="rId138" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225678505"/>
-    <hyperlink ref="A220" r:id="rId139" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4196880835"/>
-    <hyperlink ref="A221" r:id="rId140" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182209682"/>
-    <hyperlink ref="A222" r:id="rId141" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137153938"/>
-    <hyperlink ref="A223" r:id="rId142" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4044416658"/>
-    <hyperlink ref="A224" r:id="rId143" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4037612495"/>
-    <hyperlink ref="A225" r:id="rId144" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019504110"/>
-    <hyperlink ref="A194" r:id="rId145" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274683323"/>
-    <hyperlink ref="A195" r:id="rId146" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4222457922"/>
-    <hyperlink ref="A196" r:id="rId147" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4213940976"/>
-    <hyperlink ref="A197" r:id="rId148" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4204489878"/>
-    <hyperlink ref="A198" r:id="rId149" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164285055"/>
-    <hyperlink ref="A199" r:id="rId150" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4162866564"/>
-    <hyperlink ref="A200" r:id="rId151" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4156418373"/>
-    <hyperlink ref="A201" r:id="rId152" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130483211"/>
-    <hyperlink ref="A202" r:id="rId153" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4109944909"/>
-    <hyperlink ref="A203" r:id="rId154" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4103852181"/>
-    <hyperlink ref="A204" r:id="rId155" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100995609"/>
-    <hyperlink ref="A205" r:id="rId156" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084436454"/>
-    <hyperlink ref="A206" r:id="rId157" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076556450"/>
-    <hyperlink ref="A207" r:id="rId158" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076343561"/>
-    <hyperlink ref="A208" r:id="rId159" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4067260574"/>
-    <hyperlink ref="A209" r:id="rId160" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025980603"/>
-    <hyperlink ref="A210" r:id="rId161" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019306468"/>
-    <hyperlink ref="A211" r:id="rId162" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4010550310"/>
-    <hyperlink ref="A212" r:id="rId163" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003363811"/>
-    <hyperlink ref="A213" r:id="rId164" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=1936673535"/>
-    <hyperlink ref="A168" r:id="rId165" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286718700"/>
-    <hyperlink ref="A169" r:id="rId166" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271683909"/>
-    <hyperlink ref="A170" r:id="rId167" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265247696"/>
-    <hyperlink ref="A171" r:id="rId168" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258997066"/>
-    <hyperlink ref="A172" r:id="rId169" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241055876"/>
-    <hyperlink ref="A173" r:id="rId170" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4237059147"/>
-    <hyperlink ref="A174" r:id="rId171" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224092584"/>
-    <hyperlink ref="A175" r:id="rId172" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210791311"/>
-    <hyperlink ref="A176" r:id="rId173" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4200201335"/>
-    <hyperlink ref="A177" r:id="rId174" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4189636657"/>
-    <hyperlink ref="A178" r:id="rId175" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182612572"/>
-    <hyperlink ref="A179" r:id="rId176" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4172889192"/>
-    <hyperlink ref="A180" r:id="rId177" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171427983"/>
-    <hyperlink ref="A181" r:id="rId178" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4136906761"/>
-    <hyperlink ref="A182" r:id="rId179" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4126238324"/>
-    <hyperlink ref="A183" r:id="rId180" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112950037"/>
-    <hyperlink ref="A184" r:id="rId181" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108478873"/>
-    <hyperlink ref="A185" r:id="rId182" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093146384"/>
-    <hyperlink ref="A186" r:id="rId183" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089299296"/>
-    <hyperlink ref="A187" r:id="rId184" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076154135"/>
-    <hyperlink ref="A188" r:id="rId185" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035681158"/>
-    <hyperlink ref="A189" r:id="rId186" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035354838"/>
-    <hyperlink ref="A190" r:id="rId187" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029262482"/>
-    <hyperlink ref="A191" r:id="rId188" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4026349752"/>
-    <hyperlink ref="A192" r:id="rId189" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007185716"/>
-    <hyperlink ref="A193" r:id="rId190" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4002794966"/>
-    <hyperlink ref="A152" r:id="rId191" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4293964080"/>
-    <hyperlink ref="A153" r:id="rId192" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4278001609"/>
-    <hyperlink ref="A154" r:id="rId193" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274199304"/>
-    <hyperlink ref="A155" r:id="rId194" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4263012416"/>
-    <hyperlink ref="A156" r:id="rId195" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243153129"/>
-    <hyperlink ref="A157" r:id="rId196" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243145711"/>
-    <hyperlink ref="A158" r:id="rId197" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4188983893"/>
-    <hyperlink ref="A159" r:id="rId198" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4160868219"/>
-    <hyperlink ref="A160" r:id="rId199" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4153119666"/>
-    <hyperlink ref="A161" r:id="rId200" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143164832"/>
-    <hyperlink ref="A162" r:id="rId201" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4141854781"/>
-    <hyperlink ref="A163" r:id="rId202" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099623511"/>
-    <hyperlink ref="A164" r:id="rId203" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095838097"/>
-    <hyperlink ref="A165" r:id="rId204" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094395928"/>
-    <hyperlink ref="A166" r:id="rId205" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075315309"/>
-    <hyperlink ref="A167" r:id="rId206" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035883054"/>
-    <hyperlink ref="A129" r:id="rId207" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287794862"/>
-    <hyperlink ref="A130" r:id="rId208" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4276718733"/>
-    <hyperlink ref="A131" r:id="rId209" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4242839609"/>
-    <hyperlink ref="A132" r:id="rId210" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231668373"/>
-    <hyperlink ref="A133" r:id="rId211" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227778861"/>
-    <hyperlink ref="A134" r:id="rId212" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4222456060"/>
-    <hyperlink ref="A135" r:id="rId213" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221645663"/>
-    <hyperlink ref="A136" r:id="rId214" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4192558398"/>
-    <hyperlink ref="A137" r:id="rId215" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183919491"/>
-    <hyperlink ref="A138" r:id="rId216" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177759404"/>
-    <hyperlink ref="A139" r:id="rId217" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4174802248"/>
-    <hyperlink ref="A140" r:id="rId218" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173397583"/>
-    <hyperlink ref="A141" r:id="rId219" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113766170"/>
-    <hyperlink ref="A142" r:id="rId220" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4109326278"/>
-    <hyperlink ref="A143" r:id="rId221" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094307845"/>
-    <hyperlink ref="A144" r:id="rId222" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077571030"/>
-    <hyperlink ref="A145" r:id="rId223" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061054035"/>
-    <hyperlink ref="A146" r:id="rId224" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042212090"/>
-    <hyperlink ref="A147" r:id="rId225" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4039443432"/>
-    <hyperlink ref="A148" r:id="rId226" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017586102"/>
-    <hyperlink ref="A149" r:id="rId227" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4010570201"/>
-    <hyperlink ref="A150" r:id="rId228" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007826020"/>
-    <hyperlink ref="A151" r:id="rId229" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001279746"/>
-    <hyperlink ref="A116" r:id="rId230" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271288237"/>
-    <hyperlink ref="A117" r:id="rId231" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231579039"/>
-    <hyperlink ref="A118" r:id="rId232" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206627181"/>
-    <hyperlink ref="A119" r:id="rId233" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148428954"/>
-    <hyperlink ref="A120" r:id="rId234" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143130237"/>
-    <hyperlink ref="A121" r:id="rId235" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4125978127"/>
-    <hyperlink ref="A122" r:id="rId236" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117049554"/>
-    <hyperlink ref="A123" r:id="rId237" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089549095"/>
-    <hyperlink ref="A124" r:id="rId238" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070302856"/>
-    <hyperlink ref="A125" r:id="rId239" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4048214207"/>
-    <hyperlink ref="A126" r:id="rId240" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042819662"/>
-    <hyperlink ref="A127" r:id="rId241" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007339894"/>
-    <hyperlink ref="A128" r:id="rId242" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003336741"/>
-    <hyperlink ref="A245" r:id="rId243" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4289654767"/>
-    <hyperlink ref="A246" r:id="rId244" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261161639"/>
-    <hyperlink ref="A247" r:id="rId245" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261124360"/>
-    <hyperlink ref="A248" r:id="rId246" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4228060714"/>
-    <hyperlink ref="A249" r:id="rId247" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221675351"/>
-    <hyperlink ref="A250" r:id="rId248" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177302993"/>
-    <hyperlink ref="A251" r:id="rId249" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159409873"/>
-    <hyperlink ref="A252" r:id="rId250" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148551219"/>
-    <hyperlink ref="A253" r:id="rId251" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134566505"/>
-    <hyperlink ref="A254" r:id="rId252" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128132615"/>
-    <hyperlink ref="A255" r:id="rId253" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118681051"/>
-    <hyperlink ref="A256" r:id="rId254" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4115462275"/>
-    <hyperlink ref="A257" r:id="rId255" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4107316626"/>
-    <hyperlink ref="A258" r:id="rId256" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4071284203"/>
-    <hyperlink ref="A259" r:id="rId257" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4037470093"/>
-    <hyperlink ref="A260" r:id="rId258" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027904562"/>
-    <hyperlink ref="A261" r:id="rId259" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4026826514"/>
-    <hyperlink ref="A262" r:id="rId260" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004218717"/>
-    <hyperlink ref="A263" r:id="rId261" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4264268775"/>
-    <hyperlink ref="A264" r:id="rId262" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249626325"/>
-    <hyperlink ref="A265" r:id="rId263" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240484892"/>
-    <hyperlink ref="A266" r:id="rId264" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234788321"/>
-    <hyperlink ref="A267" r:id="rId265" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4232201889"/>
-    <hyperlink ref="A268" r:id="rId266" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4209302972"/>
-    <hyperlink ref="A269" r:id="rId267" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177324540"/>
-    <hyperlink ref="A270" r:id="rId268" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4080571055"/>
-    <hyperlink ref="A271" r:id="rId269" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4034581104"/>
-    <hyperlink ref="A272" r:id="rId270" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4021773975"/>
-    <hyperlink ref="A273" r:id="rId271" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4016748115"/>
-    <hyperlink ref="A274" r:id="rId272" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4260875374"/>
-    <hyperlink ref="A275" r:id="rId273" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259159886"/>
-    <hyperlink ref="A276" r:id="rId274" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4246258800"/>
-    <hyperlink ref="A277" r:id="rId275" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241692574"/>
-    <hyperlink ref="A278" r:id="rId276" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4238077477"/>
-    <hyperlink ref="A279" r:id="rId277" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236720695"/>
-    <hyperlink ref="A280" r:id="rId278" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231129829"/>
-    <hyperlink ref="A281" r:id="rId279" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221467588"/>
-    <hyperlink ref="A282" r:id="rId280" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4199372525"/>
-    <hyperlink ref="A283" r:id="rId281" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4169994195"/>
-    <hyperlink ref="A284" r:id="rId282" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4161184260"/>
-    <hyperlink ref="A285" r:id="rId283" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4152214951"/>
-    <hyperlink ref="A286" r:id="rId284" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113781805"/>
-    <hyperlink ref="A287" r:id="rId285" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4083979295"/>
-    <hyperlink ref="A288" r:id="rId286" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4067286895"/>
-    <hyperlink ref="A289" r:id="rId287" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060579780"/>
-    <hyperlink ref="A290" r:id="rId288" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4055810240"/>
-    <hyperlink ref="A291" r:id="rId289" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017445788"/>
-    <hyperlink ref="A292" r:id="rId290" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004663699"/>
-    <hyperlink ref="A293" r:id="rId291" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287411393"/>
-    <hyperlink ref="A294" r:id="rId292" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281363692"/>
-    <hyperlink ref="A295" r:id="rId293" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262096999"/>
-    <hyperlink ref="A296" r:id="rId294" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239768380"/>
-    <hyperlink ref="A297" r:id="rId295" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4217449778"/>
-    <hyperlink ref="A298" r:id="rId296" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4215111723"/>
-    <hyperlink ref="A299" r:id="rId297" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4188848450"/>
-    <hyperlink ref="A300" r:id="rId298" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4187316655"/>
-    <hyperlink ref="A301" r:id="rId299" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184021747"/>
-    <hyperlink ref="A302" r:id="rId300" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182276641"/>
-    <hyperlink ref="A303" r:id="rId301" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171975493"/>
-    <hyperlink ref="A304" r:id="rId302" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134879136"/>
-    <hyperlink ref="A305" r:id="rId303" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094757469"/>
-    <hyperlink ref="A306" r:id="rId304" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061076461"/>
-    <hyperlink ref="A307" r:id="rId305" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060518384"/>
-    <hyperlink ref="A308" r:id="rId306" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4054949308"/>
-    <hyperlink ref="A309" r:id="rId307" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4047521589"/>
-    <hyperlink ref="A310" r:id="rId308" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4046077323"/>
-    <hyperlink ref="A311" r:id="rId309" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008342454"/>
-    <hyperlink ref="A312" r:id="rId310" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291586961"/>
-    <hyperlink ref="A313" r:id="rId311" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291564095"/>
-    <hyperlink ref="A314" r:id="rId312" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262835645"/>
-    <hyperlink ref="A315" r:id="rId313" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4260288829"/>
-    <hyperlink ref="A316" r:id="rId314" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234708789"/>
-    <hyperlink ref="A317" r:id="rId315" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231178005"/>
-    <hyperlink ref="A318" r:id="rId316" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4218715976"/>
-    <hyperlink ref="A319" r:id="rId317" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4217810176"/>
-    <hyperlink ref="A320" r:id="rId318" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4213275245"/>
-    <hyperlink ref="A321" r:id="rId319" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203058613"/>
-    <hyperlink ref="A322" r:id="rId320" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4158418803"/>
-    <hyperlink ref="A323" r:id="rId321" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148363157"/>
-    <hyperlink ref="A324" r:id="rId322" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4145107569"/>
-    <hyperlink ref="A325" r:id="rId323" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4141566414"/>
-    <hyperlink ref="A326" r:id="rId324" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128690449"/>
-    <hyperlink ref="A327" r:id="rId325" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128254043"/>
-    <hyperlink ref="A328" r:id="rId326" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4116926415"/>
-    <hyperlink ref="A329" r:id="rId327" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4116531953"/>
-    <hyperlink ref="A330" r:id="rId328" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4110295726"/>
-    <hyperlink ref="A331" r:id="rId329" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102879817"/>
-    <hyperlink ref="A332" r:id="rId330" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093258395"/>
-    <hyperlink ref="A333" r:id="rId331" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089582326"/>
-    <hyperlink ref="A334" r:id="rId332" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077532756"/>
-    <hyperlink ref="A335" r:id="rId333" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070336610"/>
-    <hyperlink ref="A336" r:id="rId334" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068821502"/>
-    <hyperlink ref="A337" r:id="rId335" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4055882420"/>
-    <hyperlink ref="A338" r:id="rId336" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4049106346"/>
-    <hyperlink ref="A339" r:id="rId337" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240732132"/>
-    <hyperlink ref="A340" r:id="rId338" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212071959"/>
-    <hyperlink ref="A341" r:id="rId339" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4197725269"/>
-    <hyperlink ref="A342" r:id="rId340" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183951166"/>
-    <hyperlink ref="A343" r:id="rId341" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4179805391"/>
-    <hyperlink ref="A344" r:id="rId342" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154764410"/>
-    <hyperlink ref="A345" r:id="rId343" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4139148848"/>
-    <hyperlink ref="A346" r:id="rId344" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117809238"/>
-    <hyperlink ref="A347" r:id="rId345" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061392951"/>
-    <hyperlink ref="A348" r:id="rId346" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4057955890"/>
-    <hyperlink ref="A349" r:id="rId347" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056036224"/>
-    <hyperlink ref="A350" r:id="rId348" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4053864701"/>
-    <hyperlink ref="A351" r:id="rId349" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4034542396"/>
-    <hyperlink ref="A352" r:id="rId350" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4024666428"/>
-    <hyperlink ref="A353" r:id="rId351" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271364646"/>
-    <hyperlink ref="A354" r:id="rId352" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4266860906"/>
-    <hyperlink ref="A355" r:id="rId353" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239060074"/>
-    <hyperlink ref="A356" r:id="rId354" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234780073"/>
-    <hyperlink ref="A357" r:id="rId355" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227770280"/>
-    <hyperlink ref="A358" r:id="rId356" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4216514301"/>
-    <hyperlink ref="A359" r:id="rId357" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173393787"/>
-    <hyperlink ref="A360" r:id="rId358" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130404830"/>
-    <hyperlink ref="A361" r:id="rId359" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4106759032"/>
-    <hyperlink ref="A362" r:id="rId360" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4066203414"/>
-    <hyperlink ref="A363" r:id="rId361" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4062627214"/>
-    <hyperlink ref="A364" r:id="rId362" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4050197024"/>
-    <hyperlink ref="A365" r:id="rId363" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4040455768"/>
-    <hyperlink ref="A366" r:id="rId364" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019529162"/>
-    <hyperlink ref="A367" r:id="rId365" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017116546"/>
-    <hyperlink ref="A368" r:id="rId366" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007392071"/>
-    <hyperlink ref="A379" r:id="rId367" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017519540"/>
-    <hyperlink ref="A378" r:id="rId368" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027313702"/>
-    <hyperlink ref="A377" r:id="rId369" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060232041"/>
-    <hyperlink ref="A376" r:id="rId370" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4071216105"/>
-    <hyperlink ref="A375" r:id="rId371" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4106695570"/>
-    <hyperlink ref="A374" r:id="rId372" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184142502"/>
-    <hyperlink ref="A373" r:id="rId373" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4190104947"/>
-    <hyperlink ref="A372" r:id="rId374" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240476114"/>
-    <hyperlink ref="A371" r:id="rId375" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271409803"/>
-    <hyperlink ref="A370" r:id="rId376" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275531271"/>
-    <hyperlink ref="A369" r:id="rId377" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275985719"/>
-    <hyperlink ref="A397" r:id="rId378" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025402336"/>
-    <hyperlink ref="A396" r:id="rId379" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4030787736"/>
-    <hyperlink ref="A395" r:id="rId380" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4059862913"/>
-    <hyperlink ref="A394" r:id="rId381" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070108135"/>
-    <hyperlink ref="A393" r:id="rId382" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100850862"/>
-    <hyperlink ref="A392" r:id="rId383" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4133960654"/>
-    <hyperlink ref="A391" r:id="rId384" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137141981"/>
-    <hyperlink ref="A390" r:id="rId385" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4138870200"/>
-    <hyperlink ref="A389" r:id="rId386" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143328593"/>
-    <hyperlink ref="A388" r:id="rId387" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4147670534"/>
-    <hyperlink ref="A387" r:id="rId388" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170519945"/>
-    <hyperlink ref="A386" r:id="rId389" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4185861040"/>
-    <hyperlink ref="A385" r:id="rId390" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203905437"/>
-    <hyperlink ref="A384" r:id="rId391" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210270460"/>
-    <hyperlink ref="A383" r:id="rId392" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221967333"/>
-    <hyperlink ref="A382" r:id="rId393" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4246290259"/>
-    <hyperlink ref="A381" r:id="rId394" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274129891"/>
-    <hyperlink ref="A380" r:id="rId395" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4290605581"/>
-    <hyperlink ref="A421" r:id="rId396" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001277740"/>
-    <hyperlink ref="A420" r:id="rId397" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004077603"/>
-    <hyperlink ref="A419" r:id="rId398" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004263926"/>
-    <hyperlink ref="A418" r:id="rId399" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4005724340"/>
-    <hyperlink ref="A417" r:id="rId400" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008969551"/>
-    <hyperlink ref="A416" r:id="rId401" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4015695874"/>
-    <hyperlink ref="A415" r:id="rId402" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4020200257"/>
-    <hyperlink ref="A414" r:id="rId403" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4053584206"/>
-    <hyperlink ref="A413" r:id="rId404" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4059899610"/>
-    <hyperlink ref="A412" r:id="rId405" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060135136"/>
-    <hyperlink ref="A411" r:id="rId406" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076688160"/>
-    <hyperlink ref="A410" r:id="rId407" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108263884"/>
-    <hyperlink ref="A409" r:id="rId408" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4111805907"/>
-    <hyperlink ref="A408" r:id="rId409" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4122527368"/>
-    <hyperlink ref="A407" r:id="rId410" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130444750"/>
-    <hyperlink ref="A406" r:id="rId411" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4138838507"/>
-    <hyperlink ref="A405" r:id="rId412" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4174698106"/>
-    <hyperlink ref="A404" r:id="rId413" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4180066178"/>
-    <hyperlink ref="A403" r:id="rId414" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210721105"/>
-    <hyperlink ref="A402" r:id="rId415" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212491735"/>
-    <hyperlink ref="A401" r:id="rId416" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224847165"/>
-    <hyperlink ref="A400" r:id="rId417" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4226075788"/>
-    <hyperlink ref="A399" r:id="rId418" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4237240592"/>
-    <hyperlink ref="A398" r:id="rId419" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286271888"/>
-    <hyperlink ref="A436" r:id="rId420" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4000305163"/>
-    <hyperlink ref="A435" r:id="rId421" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4015604194"/>
-    <hyperlink ref="A434" r:id="rId422" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4046903043"/>
-    <hyperlink ref="A433" r:id="rId423" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4081277529"/>
-    <hyperlink ref="A432" r:id="rId424" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084579694"/>
-    <hyperlink ref="A431" r:id="rId425" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4085115709"/>
-    <hyperlink ref="A430" r:id="rId426" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100784910"/>
-    <hyperlink ref="A429" r:id="rId427" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108287462"/>
-    <hyperlink ref="A428" r:id="rId428" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159520068"/>
-    <hyperlink ref="A427" r:id="rId429" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176270994"/>
-    <hyperlink ref="A426" r:id="rId430" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182901379"/>
-    <hyperlink ref="A425" r:id="rId431" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206217753"/>
-    <hyperlink ref="A424" r:id="rId432" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230418083"/>
-    <hyperlink ref="A423" r:id="rId433" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249099343"/>
-    <hyperlink ref="A422" r:id="rId434" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4276810868"/>
-    <hyperlink ref="A440" r:id="rId435" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001205790"/>
-    <hyperlink ref="A439" r:id="rId436" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102081324"/>
-    <hyperlink ref="A438" r:id="rId437" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4232272015"/>
-    <hyperlink ref="A437" r:id="rId438" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261133295"/>
-    <hyperlink ref="A456" r:id="rId439" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4011945755"/>
-    <hyperlink ref="A455" r:id="rId440" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4023161969"/>
-    <hyperlink ref="A454" r:id="rId441" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4072918890"/>
-    <hyperlink ref="A453" r:id="rId442" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077787983"/>
-    <hyperlink ref="A452" r:id="rId443" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118650451"/>
-    <hyperlink ref="A451" r:id="rId444" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4146118807"/>
-    <hyperlink ref="A450" r:id="rId445" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159132746"/>
-    <hyperlink ref="A449" r:id="rId446" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4163746193"/>
-    <hyperlink ref="A448" r:id="rId447" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171507521"/>
-    <hyperlink ref="A447" r:id="rId448" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4195659072"/>
-    <hyperlink ref="A446" r:id="rId449" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203319615"/>
-    <hyperlink ref="A445" r:id="rId450" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4219091726"/>
-    <hyperlink ref="A444" r:id="rId451" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221752441"/>
-    <hyperlink ref="A443" r:id="rId452" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231518501"/>
-    <hyperlink ref="A442" r:id="rId453" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4244831420"/>
-    <hyperlink ref="A441" r:id="rId454" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275430883"/>
-    <hyperlink ref="A467" r:id="rId455" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4011938074"/>
-    <hyperlink ref="A466" r:id="rId456" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4028018721"/>
-    <hyperlink ref="A465" r:id="rId457" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068233490"/>
-    <hyperlink ref="A464" r:id="rId458" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4073224865"/>
-    <hyperlink ref="A463" r:id="rId459" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100774318"/>
-    <hyperlink ref="A462" r:id="rId460" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128176685"/>
-    <hyperlink ref="A461" r:id="rId461" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4162834196"/>
-    <hyperlink ref="A460" r:id="rId462" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170514550"/>
-    <hyperlink ref="A459" r:id="rId463" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4228850906"/>
-    <hyperlink ref="A458" r:id="rId464" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243123354"/>
-    <hyperlink ref="A457" r:id="rId465" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259960832"/>
-    <hyperlink ref="A468" r:id="rId466" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287257679"/>
-    <hyperlink ref="A469" r:id="rId467" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4290233987"/>
-    <hyperlink ref="A470" r:id="rId468" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259740325"/>
-    <hyperlink ref="A471" r:id="rId469" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4189916869"/>
-    <hyperlink ref="A472" r:id="rId470" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4185837798"/>
-    <hyperlink ref="A473" r:id="rId471" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184623626"/>
-    <hyperlink ref="A474" r:id="rId472" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4161052583"/>
-    <hyperlink ref="A475" r:id="rId473" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159757075"/>
-    <hyperlink ref="A476" r:id="rId474" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4151191921"/>
-    <hyperlink ref="A477" r:id="rId475" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4132437278"/>
-    <hyperlink ref="A478" r:id="rId476" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130782755"/>
-    <hyperlink ref="A479" r:id="rId477" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075130381"/>
-    <hyperlink ref="A480" r:id="rId478" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070723020"/>
-    <hyperlink ref="A481" r:id="rId479" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060191434"/>
-    <hyperlink ref="A482" r:id="rId480" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4020418647"/>
-    <hyperlink ref="A483" r:id="rId481" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012823579"/>
-    <hyperlink ref="A484" r:id="rId482" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007425339"/>
-    <hyperlink ref="A485" r:id="rId483" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007242834"/>
-    <hyperlink ref="A486" r:id="rId484" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4288250609"/>
-    <hyperlink ref="A487" r:id="rId485" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286251677"/>
-    <hyperlink ref="A488" r:id="rId486" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281886705"/>
-    <hyperlink ref="A489" r:id="rId487" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265493224"/>
-    <hyperlink ref="A490" r:id="rId488" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249086158"/>
-    <hyperlink ref="A491" r:id="rId489" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212410313"/>
-    <hyperlink ref="A492" r:id="rId490" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184237729"/>
-    <hyperlink ref="A493" r:id="rId491" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183291580"/>
-    <hyperlink ref="A494" r:id="rId492" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4181727633"/>
-    <hyperlink ref="A495" r:id="rId493" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154220070"/>
-    <hyperlink ref="A496" r:id="rId494" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4147961488"/>
-    <hyperlink ref="A497" r:id="rId495" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142098338"/>
-    <hyperlink ref="A498" r:id="rId496" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142096227"/>
-    <hyperlink ref="A499" r:id="rId497" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137284545"/>
-    <hyperlink ref="A500" r:id="rId498" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118661587"/>
-    <hyperlink ref="A501" r:id="rId499" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099561096"/>
-    <hyperlink ref="A502" r:id="rId500" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4087321082"/>
-    <hyperlink ref="A503" r:id="rId501" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077714096"/>
-    <hyperlink ref="A504" r:id="rId502" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4044046834"/>
-    <hyperlink ref="A505" r:id="rId503" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4041580073"/>
-    <hyperlink ref="A506" r:id="rId504" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4040021144"/>
-    <hyperlink ref="A507" r:id="rId505" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4031297028"/>
-    <hyperlink ref="A508" r:id="rId506" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029019376"/>
-    <hyperlink ref="A509" r:id="rId507" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4013087810"/>
-    <hyperlink ref="A510" r:id="rId508" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004036558"/>
-    <hyperlink ref="A511" r:id="rId509" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281800043"/>
-    <hyperlink ref="A512" r:id="rId510" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258138742"/>
-    <hyperlink ref="A513" r:id="rId511" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4255698874"/>
-    <hyperlink ref="A514" r:id="rId512" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234372775"/>
-    <hyperlink ref="A515" r:id="rId513" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4219932242"/>
-    <hyperlink ref="A516" r:id="rId514" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210256037"/>
-    <hyperlink ref="A517" r:id="rId515" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4190057129"/>
-    <hyperlink ref="A518" r:id="rId516" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4180672409"/>
-    <hyperlink ref="A519" r:id="rId517" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170529172"/>
-    <hyperlink ref="A520" r:id="rId518" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4165823541"/>
-    <hyperlink ref="A521" r:id="rId519" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4150558207"/>
-    <hyperlink ref="A522" r:id="rId520" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137385680"/>
-    <hyperlink ref="A523" r:id="rId521" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134638165"/>
-    <hyperlink ref="A524" r:id="rId522" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128198362"/>
-    <hyperlink ref="A525" r:id="rId523" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4126709975"/>
-    <hyperlink ref="A526" r:id="rId524" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095539379"/>
-    <hyperlink ref="A527" r:id="rId525" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4088957223"/>
-    <hyperlink ref="A528" r:id="rId526" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4062067387"/>
-    <hyperlink ref="A529" r:id="rId527" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4050301380"/>
-    <hyperlink ref="A530" r:id="rId528" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4018570166"/>
-    <hyperlink ref="A531" r:id="rId529" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4283675895"/>
-    <hyperlink ref="A532" r:id="rId530" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281324114"/>
-    <hyperlink ref="A533" r:id="rId531" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4266855886"/>
-    <hyperlink ref="A534" r:id="rId532" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261108354"/>
-    <hyperlink ref="A535" r:id="rId533" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258854613"/>
-    <hyperlink ref="A536" r:id="rId534" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258154673"/>
-    <hyperlink ref="A537" r:id="rId535" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206247136"/>
-    <hyperlink ref="A538" r:id="rId536" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4205229280"/>
-    <hyperlink ref="A539" r:id="rId537" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170554153"/>
-    <hyperlink ref="A540" r:id="rId538" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154932203"/>
-    <hyperlink ref="A541" r:id="rId539" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4144441683"/>
-    <hyperlink ref="A542" r:id="rId540" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142091196"/>
-    <hyperlink ref="A543" r:id="rId541" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137149732"/>
-    <hyperlink ref="A544" r:id="rId542" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118665646"/>
-    <hyperlink ref="A545" r:id="rId543" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099929923"/>
-    <hyperlink ref="A546" r:id="rId544" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4079102967"/>
-    <hyperlink ref="A547" r:id="rId545" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4066235405"/>
-    <hyperlink ref="A548" r:id="rId546" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4047557957"/>
+    <hyperlink ref="A97" r:id="rId1" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239655112" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A98" r:id="rId2" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230497925" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A99" r:id="rId3" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230496845" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A100" r:id="rId4" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227424593" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A101" r:id="rId5" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224955885" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A102" r:id="rId6" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4223986491" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A103" r:id="rId7" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4205249671" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A104" r:id="rId8" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4202737922" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A105" r:id="rId9" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183961514" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A106" r:id="rId10" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164638950" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A107" r:id="rId11" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4156429946" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A108" r:id="rId12" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148639400" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A109" r:id="rId13" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137432386" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A110" r:id="rId14" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112675028" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A111" r:id="rId15" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075177413" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A112" r:id="rId16" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4073214394" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A113" r:id="rId17" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4006538228" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A114" r:id="rId18" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003861440" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A115" r:id="rId19" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4000421941" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A82" r:id="rId20" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239608858" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A83" r:id="rId21" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203073376" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A84" r:id="rId22" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176929341" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A85" r:id="rId23" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164293592" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A86" r:id="rId24" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4153570650" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A87" r:id="rId25" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113786014" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A88" r:id="rId26" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4105077759" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A89" r:id="rId27" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102398062" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A90" r:id="rId28" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4090592415" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A91" r:id="rId29" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089550999" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A92" r:id="rId30" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4081679708" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A93" r:id="rId31" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4069889922" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A94" r:id="rId32" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061796642" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A95" r:id="rId33" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042289538" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A96" r:id="rId34" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004355715" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A57" r:id="rId35" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287739049" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A58" r:id="rId36" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286955303" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A59" r:id="rId37" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4255374604" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A60" r:id="rId38" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221480905" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A61" r:id="rId39" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206995237" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A62" r:id="rId40" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182802649" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A63" r:id="rId41" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176807246" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A64" r:id="rId42" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4175448987" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A65" r:id="rId43" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4160673901" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A66" r:id="rId44" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154755209" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A67" r:id="rId45" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154374760" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A68" r:id="rId46" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143179473" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A69" r:id="rId47" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4114482355" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A70" r:id="rId48" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113793571" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A71" r:id="rId49" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108630204" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A72" r:id="rId50" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4092104757" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A73" r:id="rId51" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4080543699" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A74" r:id="rId52" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068486206" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A75" r:id="rId53" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4063996680" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A76" r:id="rId54" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4063994855" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A77" r:id="rId55" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056578021" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A78" r:id="rId56" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4048648924" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A79" r:id="rId57" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4032031391" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A80" r:id="rId58" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008040384" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A81" r:id="rId59" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004392734" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A40" r:id="rId60" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275435097" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A41" r:id="rId61" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274777199" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A42" r:id="rId62" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4272530157" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A43" r:id="rId63" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4238079725" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A44" r:id="rId64" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4179776514" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A45" r:id="rId65" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176167889" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A46" r:id="rId66" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143401082" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A47" r:id="rId67" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4136890379" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A48" r:id="rId68" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4114535853" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A49" r:id="rId69" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4092186618" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A50" r:id="rId70" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084798749" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A51" r:id="rId71" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056558833" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A52" r:id="rId72" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042081768" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A53" r:id="rId73" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4033932706" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A54" r:id="rId74" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029735440" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A55" r:id="rId75" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019656239" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A56" r:id="rId76" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001015084" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A17" r:id="rId77" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291539293" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A18" r:id="rId78" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4285180500" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A19" r:id="rId79" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262393207" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A20" r:id="rId80" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230407627" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A21" r:id="rId81" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4226084387" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A22" r:id="rId82" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4201755334" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A23" r:id="rId83" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177069902" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A24" r:id="rId84" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171903921" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A25" r:id="rId85" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170247256" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A26" r:id="rId86" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4150829217" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A27" r:id="rId87" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137426757" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A28" r:id="rId88" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118723622" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A29" r:id="rId89" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112643857" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A30" r:id="rId90" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093855606" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A31" r:id="rId91" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075772124" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A32" r:id="rId92" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060413272" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A33" r:id="rId93" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4049114285" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A34" r:id="rId94" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025935164" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A35" r:id="rId95" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4022543978" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A36" r:id="rId96" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019339585" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A37" r:id="rId97" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007346770" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A38" r:id="rId98" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4005738887" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A39" r:id="rId99" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003460052" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A3" r:id="rId100" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4283246090" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A4" r:id="rId101" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231281196" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A5" r:id="rId102" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182974098" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A6" r:id="rId103" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173316101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A7" r:id="rId104" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173307521" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A8" r:id="rId105" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137459028" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A9" r:id="rId106" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4121886091" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A10" r:id="rId107" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095814871" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A11" r:id="rId108" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077933392" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A12" r:id="rId109" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060586718" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A13" r:id="rId110" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025945115" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A14" r:id="rId111" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012363646" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A15" r:id="rId112" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008004182" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A16" r:id="rId113" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003309352" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A226" r:id="rId114" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4294629004" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A227" r:id="rId115" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287755650" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A228" r:id="rId116" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241696945" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A229" r:id="rId117" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236536470" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A230" r:id="rId118" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225678526" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A231" r:id="rId119" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225670127" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A232" r:id="rId120" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210519507" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A233" r:id="rId121" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182245836" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A234" r:id="rId122" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182226766" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A235" r:id="rId123" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182214570" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A236" r:id="rId124" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4172310018" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A237" r:id="rId125" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4163694589" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A238" r:id="rId126" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4158429639" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A239" r:id="rId127" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4140822920" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A240" r:id="rId128" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117092334" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A241" r:id="rId129" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060547618" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A242" r:id="rId130" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027090716" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A243" r:id="rId131" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012825925" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A244" r:id="rId132" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012800669" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A214" r:id="rId133" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274671731" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A215" r:id="rId134" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265254307" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A216" r:id="rId135" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239764285" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A217" r:id="rId136" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239723265" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A218" r:id="rId137" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236509944" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A219" r:id="rId138" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4225678505" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A220" r:id="rId139" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4196880835" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A221" r:id="rId140" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182209682" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A222" r:id="rId141" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137153938" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A223" r:id="rId142" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4044416658" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A224" r:id="rId143" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4037612495" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A225" r:id="rId144" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019504110" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A194" r:id="rId145" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274683323" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A195" r:id="rId146" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4222457922" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A196" r:id="rId147" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4213940976" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A197" r:id="rId148" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4204489878" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A198" r:id="rId149" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4164285055" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A199" r:id="rId150" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4162866564" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A200" r:id="rId151" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4156418373" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A201" r:id="rId152" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130483211" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A202" r:id="rId153" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4109944909" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A203" r:id="rId154" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4103852181" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A204" r:id="rId155" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100995609" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A205" r:id="rId156" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084436454" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A206" r:id="rId157" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076556450" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A207" r:id="rId158" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076343561" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A208" r:id="rId159" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4067260574" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A209" r:id="rId160" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025980603" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A210" r:id="rId161" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019306468" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A211" r:id="rId162" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4010550310" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A212" r:id="rId163" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003363811" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A213" r:id="rId164" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=1936673535" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A168" r:id="rId165" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286718700" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A169" r:id="rId166" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271683909" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A170" r:id="rId167" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265247696" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A171" r:id="rId168" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258997066" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A172" r:id="rId169" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241055876" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A173" r:id="rId170" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4237059147" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A174" r:id="rId171" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224092584" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A175" r:id="rId172" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210791311" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A176" r:id="rId173" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4200201335" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A177" r:id="rId174" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4189636657" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A178" r:id="rId175" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182612572" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A179" r:id="rId176" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4172889192" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A180" r:id="rId177" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171427983" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A181" r:id="rId178" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4136906761" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A182" r:id="rId179" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4126238324" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A183" r:id="rId180" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4112950037" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A184" r:id="rId181" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108478873" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A185" r:id="rId182" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093146384" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A186" r:id="rId183" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089299296" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A187" r:id="rId184" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076154135" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A188" r:id="rId185" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035681158" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A189" r:id="rId186" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035354838" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A190" r:id="rId187" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029262482" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A191" r:id="rId188" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4026349752" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A192" r:id="rId189" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007185716" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A193" r:id="rId190" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4002794966" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A152" r:id="rId191" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4293964080" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A153" r:id="rId192" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4278001609" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A154" r:id="rId193" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274199304" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A155" r:id="rId194" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4263012416" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A156" r:id="rId195" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243153129" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A157" r:id="rId196" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243145711" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A158" r:id="rId197" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4188983893" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A159" r:id="rId198" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4160868219" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A160" r:id="rId199" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4153119666" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A161" r:id="rId200" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143164832" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A162" r:id="rId201" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4141854781" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A163" r:id="rId202" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099623511" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A164" r:id="rId203" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095838097" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A165" r:id="rId204" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094395928" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A166" r:id="rId205" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075315309" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A167" r:id="rId206" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4035883054" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A129" r:id="rId207" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287794862" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A130" r:id="rId208" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4276718733" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A131" r:id="rId209" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4242839609" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A132" r:id="rId210" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231668373" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A133" r:id="rId211" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227778861" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A134" r:id="rId212" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4222456060" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A135" r:id="rId213" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221645663" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A136" r:id="rId214" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4192558398" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A137" r:id="rId215" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183919491" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A138" r:id="rId216" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177759404" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="A139" r:id="rId217" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4174802248" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A140" r:id="rId218" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173397583" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="A141" r:id="rId219" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113766170" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A142" r:id="rId220" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4109326278" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="A143" r:id="rId221" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094307845" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A144" r:id="rId222" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077571030" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="A145" r:id="rId223" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061054035" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="A146" r:id="rId224" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042212090" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A147" r:id="rId225" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4039443432" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="A148" r:id="rId226" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017586102" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="A149" r:id="rId227" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4010570201" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A150" r:id="rId228" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007826020" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="A151" r:id="rId229" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001279746" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="A116" r:id="rId230" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271288237" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A117" r:id="rId231" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231579039" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="A118" r:id="rId232" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206627181" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="A119" r:id="rId233" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148428954" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A120" r:id="rId234" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143130237" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="A121" r:id="rId235" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4125978127" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="A122" r:id="rId236" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117049554" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A123" r:id="rId237" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089549095" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="A124" r:id="rId238" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070302856" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A125" r:id="rId239" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4048214207" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="A126" r:id="rId240" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4042819662" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="A127" r:id="rId241" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007339894" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A128" r:id="rId242" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4003336741" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="A245" r:id="rId243" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4289654767" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="A246" r:id="rId244" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261161639" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A247" r:id="rId245" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261124360" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="A248" r:id="rId246" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4228060714" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A249" r:id="rId247" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221675351" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="A250" r:id="rId248" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177302993" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A251" r:id="rId249" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159409873" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="A252" r:id="rId250" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148551219" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="A253" r:id="rId251" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134566505" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A254" r:id="rId252" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128132615" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="A255" r:id="rId253" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118681051" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="A256" r:id="rId254" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4115462275" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A257" r:id="rId255" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4107316626" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A258" r:id="rId256" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4071284203" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A259" r:id="rId257" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4037470093" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="A260" r:id="rId258" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027904562" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="A261" r:id="rId259" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4026826514" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A262" r:id="rId260" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004218717" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="A263" r:id="rId261" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4264268775" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A264" r:id="rId262" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249626325" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="A265" r:id="rId263" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240484892" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A266" r:id="rId264" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234788321" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="A267" r:id="rId265" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4232201889" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="A268" r:id="rId266" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4209302972" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="A269" r:id="rId267" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4177324540" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="A270" r:id="rId268" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4080571055" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="A271" r:id="rId269" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4034581104" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="A272" r:id="rId270" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4021773975" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="A273" r:id="rId271" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4016748115" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="A274" r:id="rId272" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4260875374" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="A275" r:id="rId273" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259159886" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="A276" r:id="rId274" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4246258800" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="A277" r:id="rId275" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4241692574" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="A278" r:id="rId276" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4238077477" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="A279" r:id="rId277" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4236720695" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="A280" r:id="rId278" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231129829" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="A281" r:id="rId279" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221467588" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="A282" r:id="rId280" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4199372525" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="A283" r:id="rId281" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4169994195" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="A284" r:id="rId282" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4161184260" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="A285" r:id="rId283" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4152214951" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="A286" r:id="rId284" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4113781805" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="A287" r:id="rId285" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4083979295" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="A288" r:id="rId286" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4067286895" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="A289" r:id="rId287" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060579780" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="A290" r:id="rId288" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4055810240" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="A291" r:id="rId289" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017445788" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="A292" r:id="rId290" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004663699" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="A293" r:id="rId291" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287411393" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="A294" r:id="rId292" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281363692" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="A295" r:id="rId293" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262096999" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="A296" r:id="rId294" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239768380" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="A297" r:id="rId295" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4217449778" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="A298" r:id="rId296" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4215111723" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="A299" r:id="rId297" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4188848450" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="A300" r:id="rId298" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4187316655" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="A301" r:id="rId299" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184021747" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="A302" r:id="rId300" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182276641" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="A303" r:id="rId301" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171975493" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="A304" r:id="rId302" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134879136" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="A305" r:id="rId303" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4094757469" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="A306" r:id="rId304" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061076461" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="A307" r:id="rId305" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060518384" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="A308" r:id="rId306" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4054949308" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="A309" r:id="rId307" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4047521589" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="A310" r:id="rId308" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4046077323" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="A311" r:id="rId309" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008342454" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="A312" r:id="rId310" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291586961" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="A313" r:id="rId311" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4291564095" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="A314" r:id="rId312" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4262835645" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="A315" r:id="rId313" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4260288829" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="A316" r:id="rId314" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234708789" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="A317" r:id="rId315" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231178005" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="A318" r:id="rId316" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4218715976" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="A319" r:id="rId317" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4217810176" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="A320" r:id="rId318" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4213275245" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="A321" r:id="rId319" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203058613" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="A322" r:id="rId320" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4158418803" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="A323" r:id="rId321" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4148363157" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="A324" r:id="rId322" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4145107569" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="A325" r:id="rId323" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4141566414" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="A326" r:id="rId324" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128690449" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="A327" r:id="rId325" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128254043" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="A328" r:id="rId326" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4116926415" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="A329" r:id="rId327" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4116531953" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="A330" r:id="rId328" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4110295726" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="A331" r:id="rId329" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102879817" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="A332" r:id="rId330" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4093258395" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="A333" r:id="rId331" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4089582326" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="A334" r:id="rId332" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077532756" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="A335" r:id="rId333" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070336610" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="A336" r:id="rId334" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068821502" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="A337" r:id="rId335" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4055882420" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="A338" r:id="rId336" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4049106346" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="A339" r:id="rId337" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240732132" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="A340" r:id="rId338" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212071959" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="A341" r:id="rId339" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4197725269" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="A342" r:id="rId340" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183951166" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="A343" r:id="rId341" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4179805391" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="A344" r:id="rId342" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154764410" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="A345" r:id="rId343" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4139148848" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="A346" r:id="rId344" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4117809238" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="A347" r:id="rId345" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4061392951" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="A348" r:id="rId346" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4057955890" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="A349" r:id="rId347" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4056036224" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="A350" r:id="rId348" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4053864701" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="A351" r:id="rId349" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4034542396" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="A352" r:id="rId350" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4024666428" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="A353" r:id="rId351" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271364646" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="A354" r:id="rId352" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4266860906" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="A355" r:id="rId353" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4239060074" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="A356" r:id="rId354" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234780073" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="A357" r:id="rId355" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4227770280" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="A358" r:id="rId356" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4216514301" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="A359" r:id="rId357" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4173393787" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="A360" r:id="rId358" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130404830" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="A361" r:id="rId359" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4106759032" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="A362" r:id="rId360" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4066203414" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="A363" r:id="rId361" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4062627214" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="A364" r:id="rId362" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4050197024" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="A365" r:id="rId363" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4040455768" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="A366" r:id="rId364" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4019529162" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="A367" r:id="rId365" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017116546" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="A368" r:id="rId366" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007392071" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="A379" r:id="rId367" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4017519540" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="A378" r:id="rId368" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4027313702" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="A377" r:id="rId369" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060232041" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="A376" r:id="rId370" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4071216105" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="A375" r:id="rId371" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4106695570" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="A374" r:id="rId372" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184142502" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="A373" r:id="rId373" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4190104947" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="A372" r:id="rId374" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4240476114" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="A371" r:id="rId375" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4271409803" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="A370" r:id="rId376" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275531271" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="A369" r:id="rId377" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275985719" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="A397" r:id="rId378" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4025402336" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="A396" r:id="rId379" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4030787736" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="A395" r:id="rId380" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4059862913" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="A394" r:id="rId381" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070108135" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="A393" r:id="rId382" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100850862" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="A392" r:id="rId383" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4133960654" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="A391" r:id="rId384" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137141981" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="A390" r:id="rId385" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4138870200" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="A389" r:id="rId386" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4143328593" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="A388" r:id="rId387" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4147670534" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="A387" r:id="rId388" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170519945" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="A386" r:id="rId389" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4185861040" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="A385" r:id="rId390" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203905437" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="A384" r:id="rId391" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210270460" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="A383" r:id="rId392" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221967333" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="A382" r:id="rId393" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4246290259" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="A381" r:id="rId394" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4274129891" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="A380" r:id="rId395" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4290605581" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="A421" r:id="rId396" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001277740" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="A420" r:id="rId397" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004077603" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="A419" r:id="rId398" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004263926" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="A418" r:id="rId399" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4005724340" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="A417" r:id="rId400" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4008969551" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="A416" r:id="rId401" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4015695874" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="A415" r:id="rId402" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4020200257" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="A414" r:id="rId403" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4053584206" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="A413" r:id="rId404" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4059899610" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="A412" r:id="rId405" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060135136" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="A411" r:id="rId406" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4076688160" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="A410" r:id="rId407" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108263884" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="A409" r:id="rId408" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4111805907" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="A408" r:id="rId409" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4122527368" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="A407" r:id="rId410" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130444750" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="A406" r:id="rId411" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4138838507" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="A405" r:id="rId412" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4174698106" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="A404" r:id="rId413" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4180066178" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="A403" r:id="rId414" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210721105" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="A402" r:id="rId415" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212491735" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="A401" r:id="rId416" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4224847165" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="A400" r:id="rId417" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4226075788" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="A399" r:id="rId418" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4237240592" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="A398" r:id="rId419" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286271888" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="A436" r:id="rId420" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4000305163" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="A435" r:id="rId421" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4015604194" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="A434" r:id="rId422" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4046903043" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="A433" r:id="rId423" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4081277529" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="A432" r:id="rId424" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4084579694" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="A431" r:id="rId425" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4085115709" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="A430" r:id="rId426" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100784910" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="A429" r:id="rId427" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4108287462" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="A428" r:id="rId428" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159520068" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="A427" r:id="rId429" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4176270994" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="A426" r:id="rId430" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4182901379" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="A425" r:id="rId431" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206217753" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="A424" r:id="rId432" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4230418083" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="A423" r:id="rId433" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249099343" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="A422" r:id="rId434" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4276810868" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="A440" r:id="rId435" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4001205790" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="A439" r:id="rId436" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4102081324" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="A438" r:id="rId437" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4232272015" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="A437" r:id="rId438" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261133295" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="A456" r:id="rId439" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4011945755" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="A455" r:id="rId440" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4023161969" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="A454" r:id="rId441" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4072918890" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="A453" r:id="rId442" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077787983" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="A452" r:id="rId443" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118650451" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="A451" r:id="rId444" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4146118807" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="A450" r:id="rId445" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159132746" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="A449" r:id="rId446" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4163746193" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="A448" r:id="rId447" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4171507521" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="A447" r:id="rId448" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4195659072" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="A446" r:id="rId449" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4203319615" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="A445" r:id="rId450" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4219091726" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="A444" r:id="rId451" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4221752441" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="A443" r:id="rId452" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4231518501" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="A442" r:id="rId453" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4244831420" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="A441" r:id="rId454" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4275430883" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="A467" r:id="rId455" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4011938074" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="A466" r:id="rId456" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4028018721" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="A465" r:id="rId457" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4068233490" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="A464" r:id="rId458" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4073224865" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="A463" r:id="rId459" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4100774318" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="A462" r:id="rId460" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128176685" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="A461" r:id="rId461" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4162834196" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="A460" r:id="rId462" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170514550" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="A459" r:id="rId463" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4228850906" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="A458" r:id="rId464" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4243123354" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="A457" r:id="rId465" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259960832" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="A468" r:id="rId466" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4287257679" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="A469" r:id="rId467" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4290233987" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="A470" r:id="rId468" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4259740325" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="A471" r:id="rId469" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4189916869" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="A472" r:id="rId470" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4185837798" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="A473" r:id="rId471" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184623626" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="A474" r:id="rId472" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4161052583" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="A475" r:id="rId473" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4159757075" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="A476" r:id="rId474" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4151191921" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="A477" r:id="rId475" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4132437278" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="A478" r:id="rId476" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4130782755" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="A479" r:id="rId477" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4075130381" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="A480" r:id="rId478" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4070723020" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="A481" r:id="rId479" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4060191434" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="A482" r:id="rId480" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4020418647" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="A483" r:id="rId481" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4012823579" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="A484" r:id="rId482" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007425339" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="A485" r:id="rId483" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4007242834" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="A486" r:id="rId484" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4288250609" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="A487" r:id="rId485" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4286251677" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="A488" r:id="rId486" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281886705" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="A489" r:id="rId487" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4265493224" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="A490" r:id="rId488" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4249086158" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="A491" r:id="rId489" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4212410313" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="A492" r:id="rId490" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4184237729" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="A493" r:id="rId491" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4183291580" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="A494" r:id="rId492" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4181727633" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="A495" r:id="rId493" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154220070" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="A496" r:id="rId494" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4147961488" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="A497" r:id="rId495" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142098338" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="A498" r:id="rId496" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142096227" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="A499" r:id="rId497" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137284545" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="A500" r:id="rId498" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118661587" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="A501" r:id="rId499" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099561096" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="A502" r:id="rId500" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4087321082" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="A503" r:id="rId501" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4077714096" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="A504" r:id="rId502" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4044046834" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="A505" r:id="rId503" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4041580073" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="A506" r:id="rId504" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4040021144" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="A507" r:id="rId505" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4031297028" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="A508" r:id="rId506" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4029019376" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="A509" r:id="rId507" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4013087810" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="A510" r:id="rId508" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4004036558" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="A511" r:id="rId509" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281800043" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="A512" r:id="rId510" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258138742" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="A513" r:id="rId511" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4255698874" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="A514" r:id="rId512" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4234372775" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="A515" r:id="rId513" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4219932242" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="A516" r:id="rId514" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4210256037" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="A517" r:id="rId515" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4190057129" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="A518" r:id="rId516" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4180672409" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="A519" r:id="rId517" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170529172" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="A520" r:id="rId518" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4165823541" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="A521" r:id="rId519" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4150558207" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="A522" r:id="rId520" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137385680" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="A523" r:id="rId521" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4134638165" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="A524" r:id="rId522" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4128198362" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="A525" r:id="rId523" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4126709975" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="A526" r:id="rId524" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4095539379" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="A527" r:id="rId525" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4088957223" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="A528" r:id="rId526" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4062067387" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="A529" r:id="rId527" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4050301380" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="A530" r:id="rId528" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4018570166" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="A531" r:id="rId529" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4283675895" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="A532" r:id="rId530" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4281324114" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="A533" r:id="rId531" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4266855886" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="A534" r:id="rId532" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4261108354" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="A535" r:id="rId533" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258854613" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="A536" r:id="rId534" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4258154673" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="A537" r:id="rId535" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4206247136" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="A538" r:id="rId536" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4205229280" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="A539" r:id="rId537" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4170554153" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="A540" r:id="rId538" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4154932203" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="A541" r:id="rId539" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4144441683" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="A542" r:id="rId540" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4142091196" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="A543" r:id="rId541" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4137149732" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="A544" r:id="rId542" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4118665646" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="A545" r:id="rId543" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4099929923" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="A546" r:id="rId544" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4079102967" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="A547" r:id="rId545" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4066235405" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="A548" r:id="rId546" display="https://admin.booking.com/hotel/hoteladmin/extranet_ng/manage/booking.html?hotel_id=7333606&amp;lang=en&amp;ses=ded6b4e21366b68b4abdf513472113c1&amp;hotel_account_id=12245679&amp;res_id=4047557957" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId547"/>
